--- a/output/0/tRNA-Ser-CGA-1-1.xlsx
+++ b/output/0/tRNA-Ser-CGA-1-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>chr17</t>
   </si>
   <si>
-    <t>8042206</t>
-  </si>
-  <si>
-    <t>8042229</t>
+    <t>8042772</t>
+  </si>
+  <si>
+    <t>8042795</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>8042226</t>
+    <t>8042792</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,193 +38,163 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>GCAGGATTCGAACCTGCGCG</t>
+    <t>CACCGCTGGGATTCGAACCC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>30% (43)</t>
+  </si>
+  <si>
+    <t>20% (30)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>8042774</t>
+  </si>
+  <si>
+    <t>8042797</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8042777</t>
+  </si>
+  <si>
+    <t>ATCCTGGGTTCGAATCCCAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>98% (71)</t>
+  </si>
+  <si>
+    <t>91% (71)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>8042789</t>
+  </si>
+  <si>
+    <t>8042812</t>
+  </si>
+  <si>
+    <t>TCTAGTAAACAGGAGATCCT</t>
   </si>
   <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>96% (68)</t>
-  </si>
-  <si>
-    <t>61% (50)</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>8042218</t>
-  </si>
-  <si>
-    <t>8042241</t>
-  </si>
-  <si>
-    <t>8042238</t>
-  </si>
-  <si>
-    <t>CCTGCGCGGGGAGACCCCAT</t>
+    <t>86% (62)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>8042790</t>
+  </si>
+  <si>
+    <t>8042813</t>
+  </si>
+  <si>
+    <t>8042793</t>
+  </si>
+  <si>
+    <t>GTCTAGTAAACAGGAGATCC</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>98% (83)</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>23% (40)</t>
+  </si>
+  <si>
+    <t>4% (14)</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>8042816</t>
+  </si>
+  <si>
+    <t>GGATCTCCTGTTTACTAGAC</t>
+  </si>
+  <si>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>8042799</t>
+  </si>
+  <si>
+    <t>8042822</t>
+  </si>
+  <si>
+    <t>8042802</t>
+  </si>
+  <si>
+    <t>AAAGCGCCTGTCTAGTAAAC</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>8042839</t>
+  </si>
+  <si>
+    <t>8042836</t>
+  </si>
+  <si>
+    <t>CGCTTTAACCAGCTAAGCCA</t>
+  </si>
+  <si>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>9% (21)</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>8042221</t>
-  </si>
-  <si>
-    <t>CCAATGGGGTCTCCCCGCGC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>87% (66)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>8042232</t>
-  </si>
-  <si>
-    <t>8042255</t>
-  </si>
-  <si>
-    <t>8042235</t>
-  </si>
-  <si>
-    <t>GTTGGACTCGAAATCCAATG</t>
-  </si>
-  <si>
-    <t>100% (76)</t>
-  </si>
-  <si>
-    <t>74% (57)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>8042233</t>
-  </si>
-  <si>
-    <t>8042256</t>
-  </si>
-  <si>
-    <t>8042236</t>
-  </si>
-  <si>
-    <t>CGTTGGACTCGAAATCCAAT</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>2% (11)</t>
-  </si>
-  <si>
     <t>63</t>
-  </si>
-  <si>
-    <t>8042234</t>
-  </si>
-  <si>
-    <t>8042257</t>
-  </si>
-  <si>
-    <t>8042237</t>
-  </si>
-  <si>
-    <t>GCGTTGGACTCGAAATCCAA</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>8042247</t>
-  </si>
-  <si>
-    <t>8042270</t>
-  </si>
-  <si>
-    <t>8042267</t>
-  </si>
-  <si>
-    <t>AGTCCAACGCCTTAACCACT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>8042250</t>
-  </si>
-  <si>
-    <t>8042273</t>
-  </si>
-  <si>
-    <t>8042253</t>
-  </si>
-  <si>
-    <t>TGGCCGAGTGGTTAAGGCGT</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>59</t>
   </si>
 </sst>
 </file>
@@ -269,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -348,13 +318,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -366,25 +336,25 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -398,22 +368,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -425,25 +395,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -466,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -487,19 +457,19 @@
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>40</v>
@@ -516,22 +486,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -543,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
         <v>9</v>
@@ -552,16 +522,16 @@
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>47</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -575,22 +545,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -602,25 +572,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>24</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -634,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -646,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -661,89 +631,30 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
         <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>62</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" t="s">
         <v>3</v>
       </c>
     </row>
